--- a/config_Release/activity_xycj_config.xlsx
+++ b/config_Release/activity_xycj_config.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_Release\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="5" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="69">
   <si>
     <t>line|行号</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -272,6 +272,21 @@
   </si>
   <si>
     <t>俄罗斯\n进口巧克力</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>asset_type|资产类型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>shop_gold_sum</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>jing_bi</t>
+  </si>
+  <si>
+    <t>value|数值</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -342,7 +357,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -365,6 +380,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -373,7 +399,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -424,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -702,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R47"/>
+  <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -719,17 +748,15 @@
     <col min="7" max="7" width="19.25" customWidth="1"/>
     <col min="8" max="8" width="22.125" customWidth="1"/>
     <col min="9" max="9" width="17.625" customWidth="1"/>
-    <col min="10" max="10" width="28.25" customWidth="1"/>
-    <col min="11" max="11" width="24.25" customWidth="1"/>
-    <col min="12" max="12" width="25.125" customWidth="1"/>
-    <col min="13" max="13" width="23.75" customWidth="1"/>
-    <col min="14" max="14" width="21.75" customWidth="1"/>
-    <col min="15" max="16" width="24.25" customWidth="1"/>
-    <col min="17" max="17" width="21.125" customWidth="1"/>
-    <col min="18" max="21" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="25.125" customWidth="1"/>
+    <col min="11" max="11" width="23.75" customWidth="1"/>
+    <col min="12" max="12" width="21.75" customWidth="1"/>
+    <col min="13" max="14" width="24.25" customWidth="1"/>
+    <col min="15" max="15" width="21.125" customWidth="1"/>
+    <col min="16" max="19" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -751,8 +778,14 @@
       <c r="G1" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H1" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -774,8 +807,14 @@
       <c r="G2" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H2" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -797,9 +836,14 @@
       <c r="G3" s="11">
         <v>0</v>
       </c>
-      <c r="K3" s="1"/>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H3" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="11">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -821,9 +865,14 @@
       <c r="G4" s="11">
         <v>1</v>
       </c>
-      <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H4" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="11">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -845,9 +894,14 @@
       <c r="G5" s="11">
         <v>0</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H5" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" s="11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -869,9 +923,14 @@
       <c r="G6" s="11">
         <v>0</v>
       </c>
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H6" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -893,9 +952,14 @@
       <c r="G7" s="11">
         <v>1</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H7" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I7" s="11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -917,9 +981,14 @@
       <c r="G8" s="11">
         <v>0</v>
       </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H8" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I8" s="11">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -941,9 +1010,14 @@
       <c r="G9" s="11">
         <v>0</v>
       </c>
-      <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H9" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -965,9 +1039,14 @@
       <c r="G10" s="11">
         <v>1</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H10" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I10" s="11">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -989,9 +1068,14 @@
       <c r="G11" s="11">
         <v>0</v>
       </c>
-      <c r="K11" s="1"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11" s="11">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="15">
         <v>11</v>
       </c>
@@ -1013,8 +1097,14 @@
       <c r="G12" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H12" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I12" s="18">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="15">
         <v>12</v>
       </c>
@@ -1036,8 +1126,14 @@
       <c r="G13" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="H13" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="18">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="15">
         <v>13</v>
       </c>
@@ -1059,15 +1155,21 @@
       <c r="G14" s="18">
         <v>1</v>
       </c>
-      <c r="L14" s="5"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+      <c r="H14" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="15">
         <v>14</v>
       </c>
@@ -1089,15 +1191,21 @@
       <c r="G15" s="18">
         <v>0</v>
       </c>
-      <c r="L15" s="5"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="H15" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="J15" s="5"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="15">
         <v>15</v>
       </c>
@@ -1119,15 +1227,21 @@
       <c r="G16" s="18">
         <v>0</v>
       </c>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
+      <c r="H16" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I16" s="18">
+        <v>100000</v>
+      </c>
+      <c r="J16" s="5"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="15">
         <v>16</v>
       </c>
@@ -1149,15 +1263,21 @@
       <c r="G17" s="18">
         <v>1</v>
       </c>
-      <c r="L17" s="5"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
+      <c r="H17" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="18">
+        <v>100000000</v>
+      </c>
+      <c r="J17" s="5"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="15">
         <v>17</v>
       </c>
@@ -1179,15 +1299,21 @@
       <c r="G18" s="18">
         <v>0</v>
       </c>
-      <c r="L18" s="5"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+      <c r="H18" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I18" s="18">
+        <v>4250</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="15">
         <v>18</v>
       </c>
@@ -1209,15 +1335,21 @@
       <c r="G19" s="18">
         <v>0</v>
       </c>
-      <c r="L19" s="5"/>
+      <c r="H19" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="18">
+        <v>5000000</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
       <c r="M19" s="1"/>
       <c r="N19" s="1"/>
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-    </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="15">
         <v>19</v>
       </c>
@@ -1239,15 +1371,21 @@
       <c r="G20" s="18">
         <v>1</v>
       </c>
-      <c r="L20" s="5"/>
+      <c r="H20" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="I20" s="18">
+        <v>400000</v>
+      </c>
+      <c r="J20" s="5"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="15">
         <v>20</v>
       </c>
@@ -1269,109 +1407,85 @@
       <c r="G21" s="18">
         <v>0</v>
       </c>
+      <c r="H21" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="18">
+        <v>10000000</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-    </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="F27" s="12"/>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J38" s="2"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J39" s="2"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J40" s="2"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J41" s="2"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J42" s="2"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J43" s="2"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J44" s="2"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J45" s="2"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J46" s="2"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J47" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1384,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/config_Release/activity_xycj_config.xlsx
+++ b/config_Release/activity_xycj_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_debug\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="597"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="597"/>
   </bookViews>
   <sheets>
     <sheet name="config|配置" sheetId="5" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="59">
   <si>
     <t>line|行号</t>
   </si>
@@ -105,12 +110,6 @@
     <t>福利券x10万</t>
   </si>
   <si>
-    <t>ty_icon_jb_198y</t>
-  </si>
-  <si>
-    <t>金币x1亿</t>
-  </si>
-  <si>
     <t>福利券x4250</t>
   </si>
   <si>
@@ -190,19 +189,25 @@
   </si>
   <si>
     <t>min_money|携带金币下限</t>
+  </si>
+  <si>
+    <t>ty_icon_flqbx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_xyzp_flqbx</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>福利券宝箱\n3千-1万</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -214,171 +219,60 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -403,194 +297,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -624,264 +332,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -896,7 +362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -935,64 +401,24 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1250,19 +676,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.75" customWidth="1"/>
     <col min="2" max="2" width="16.5" customWidth="1"/>
@@ -1281,7 +707,7 @@
     <col min="16" max="19" width="12.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="60.75" customHeight="1" spans="1:9">
+    <row r="1" spans="1:16" ht="60.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +736,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1339,7 +765,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1368,7 +794,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1397,7 +823,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <v>4</v>
       </c>
@@ -1426,7 +852,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
@@ -1455,7 +881,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>6</v>
       </c>
@@ -1484,7 +910,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>7</v>
       </c>
@@ -1513,7 +939,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>8</v>
       </c>
@@ -1542,7 +968,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
@@ -1571,7 +997,7 @@
         <v>2400</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>10</v>
       </c>
@@ -1600,7 +1026,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="12" ht="17.25" spans="1:9">
+    <row r="12" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>11</v>
       </c>
@@ -1627,7 +1053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="13">
         <v>12</v>
       </c>
@@ -1656,7 +1082,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>13</v>
       </c>
@@ -1692,7 +1118,7 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
     </row>
-    <row r="15" spans="1:16">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" s="13">
         <v>14</v>
       </c>
@@ -1728,7 +1154,7 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
     </row>
-    <row r="16" spans="1:16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>15</v>
       </c>
@@ -1764,7 +1190,7 @@
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
     </row>
-    <row r="17" spans="1:16">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>16</v>
       </c>
@@ -1775,22 +1201,22 @@
         <v>2</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="E17" s="15">
         <v>1</v>
       </c>
-      <c r="F17" s="19" t="s">
-        <v>30</v>
+      <c r="F17" s="23" t="s">
+        <v>58</v>
       </c>
       <c r="G17" s="17">
         <v>1</v>
       </c>
-      <c r="H17" s="17" t="s">
-        <v>23</v>
+      <c r="H17" s="22" t="s">
+        <v>57</v>
       </c>
       <c r="I17" s="17">
-        <v>100000000</v>
+        <v>1</v>
       </c>
       <c r="J17" s="21"/>
       <c r="K17" s="6"/>
@@ -1800,7 +1226,7 @@
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
     </row>
-    <row r="18" spans="1:16">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" s="13">
         <v>17</v>
       </c>
@@ -1817,7 +1243,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G18" s="17">
         <v>0</v>
@@ -1836,7 +1262,7 @@
       <c r="O18" s="1"/>
       <c r="P18" s="1"/>
     </row>
-    <row r="19" spans="1:16">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>18</v>
       </c>
@@ -1872,7 +1298,7 @@
       <c r="O19" s="1"/>
       <c r="P19" s="1"/>
     </row>
-    <row r="20" spans="1:16">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" s="13">
         <v>19</v>
       </c>
@@ -1889,7 +1315,7 @@
         <v>1</v>
       </c>
       <c r="F20" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G20" s="17">
         <v>1</v>
@@ -1908,7 +1334,7 @@
       <c r="O20" s="1"/>
       <c r="P20" s="1"/>
     </row>
-    <row r="21" spans="1:16">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" s="13">
         <v>20</v>
       </c>
@@ -1944,23 +1370,23 @@
       <c r="O21" s="1"/>
       <c r="P21" s="1"/>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
     </row>
-    <row r="26" ht="17.25" spans="1:9">
+    <row r="26" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="13"/>
@@ -1971,20 +1397,20 @@
       <c r="H26" s="17"/>
       <c r="I26" s="17"/>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="F27" s="20"/>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
     </row>
-    <row r="30" ht="17.25" spans="1:9">
+    <row r="30" spans="1:16" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -1995,51 +1421,50 @@
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.25" customWidth="1"/>
     <col min="2" max="2" width="18.75" customWidth="1"/>
@@ -2049,7 +1474,7 @@
     <col min="6" max="6" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27" spans="1:6">
+    <row r="1" spans="1:6" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2060,56 +1485,56 @@
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="4">
-        <v>1</v>
-      </c>
-      <c r="B2" s="4">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="D3" s="6" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="4">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4">
-        <v>1</v>
-      </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F3" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>3</v>
       </c>
@@ -2117,19 +1542,19 @@
         <v>1</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>45</v>
-      </c>
       <c r="F4" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>4</v>
       </c>
@@ -2137,19 +1562,19 @@
         <v>1</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F5" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>5</v>
       </c>
@@ -2157,19 +1582,19 @@
         <v>2</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="F6" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>6</v>
       </c>
@@ -2177,19 +1602,19 @@
         <v>2</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="F7" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>7</v>
       </c>
@@ -2197,19 +1622,19 @@
         <v>2</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="F8" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>8</v>
       </c>
@@ -2217,57 +1642,56 @@
         <v>2</v>
       </c>
       <c r="C9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>42</v>
-      </c>
       <c r="F9" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="3"/>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="5"/>
       <c r="D11" s="6"/>
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="4:5">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" s="6"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="4:5">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" s="6"/>
       <c r="E13" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.625" customWidth="1"/>
     <col min="2" max="2" width="20.875" customWidth="1"/>
@@ -2277,24 +1701,24 @@
     <col min="7" max="7" width="85.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.25" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2309,7 +1733,7 @@
       </c>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2325,7 +1749,7 @@
       <c r="G3" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>